--- a/Documentation/Final Report/Testing/Test cases for Currency Trader News Alert App.xlsx
+++ b/Documentation/Final Report/Testing/Test cases for Currency Trader News Alert App.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AndroidCollegeProject\Documentation\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AndroidCollegeProject\Documentation\Final Report\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BF4354-2EE9-4190-AFE5-3F64EA315318}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0CC4C1-2433-4CC1-85CD-3E3A357ED6ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="103">
   <si>
     <t>Test No.</t>
   </si>
@@ -1255,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,148 +1294,71 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="6">
-        <v>43326</v>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="6">
-        <v>43326</v>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="6">
-        <v>43326</v>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="6">
-        <v>43326</v>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="6">
-        <v>43326</v>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="6">
-        <v>43326</v>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="6">
-        <v>43326</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -1445,7 +1368,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1465,7 +1388,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1485,7 +1408,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1505,7 +1428,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1525,7 +1448,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1545,7 +1468,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1565,7 +1488,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1578,56 +1501,428 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="C17" s="2"/>
-      <c r="G17" s="6"/>
+      <c r="A17" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="6">
+        <v>43326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="6">
+        <v>43326</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>30</v>
+      <c r="A19" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="6">
+        <v>43326</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>25</v>
+      <c r="A20" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="6">
+        <v>43326</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>26</v>
+      <c r="A21" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="6">
+        <v>43326</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>27</v>
+      <c r="A22" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="6">
+        <v>43326</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>28</v>
+      <c r="A23" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="6">
+        <v>43326</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>29</v>
+      <c r="A24" s="9"/>
+      <c r="C24" s="2"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="6">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="6">
+        <v>43326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="6">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="6">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="6">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="6">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="6">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="6">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="6">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="6">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="6">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="6">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="6">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="6">
+        <v>43334</v>
       </c>
     </row>
   </sheetData>
